--- a/AAA-Luban-Excel/Datas/__enums__.xlsx
+++ b/AAA-Luban-Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1AAA0-A88D-4E41-AC05-256E9DB382D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C03B643-4605-4E75-9167-9BD189DC036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="1080" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -77,23 +77,75 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>buff.BuffEnum</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>灵视</t>
+  </si>
+  <si>
+    <t>寄生</t>
+  </si>
+  <si>
+    <t>严重寄生</t>
+  </si>
+  <si>
+    <t>完全寄生</t>
+  </si>
+  <si>
+    <t>美德</t>
+  </si>
+  <si>
+    <t>疯狂</t>
+  </si>
+  <si>
+    <t>惊恐</t>
+  </si>
+  <si>
+    <t>飞奔</t>
+  </si>
+  <si>
+    <t>洞开</t>
+  </si>
+  <si>
+    <t>精准射击</t>
+  </si>
+  <si>
+    <t>癫狂1</t>
+  </si>
+  <si>
+    <t>癫狂2</t>
+  </si>
+  <si>
+    <t>癫狂3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +205,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,26 +490,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +539,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="99" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -534,12 +595,130 @@
       </c>
       <c r="L3" s="1"/>
     </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5">
+        <v>120003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5">
+        <v>120004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5">
+        <v>120005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5">
+        <v>120006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="5">
+        <v>120007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="5">
+        <v>120008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5">
+        <v>120009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="5">
+        <v>120010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="5">
+        <v>120011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="5">
+        <v>120012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="5">
+        <v>120013</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5">
+        <v>120014</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/__enums__.xlsx
+++ b/AAA-Luban-Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C03B643-4605-4E75-9167-9BD189DC036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA083114-07A1-4708-A914-52047DB2ED10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1080" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -109,12 +109,6 @@
     <t>飞奔</t>
   </si>
   <si>
-    <t>洞开</t>
-  </si>
-  <si>
-    <t>精准射击</t>
-  </si>
-  <si>
     <t>癫狂1</t>
   </si>
   <si>
@@ -122,31 +116,67 @@
   </si>
   <si>
     <t>癫狂3</t>
+  </si>
+  <si>
+    <t>120001</t>
+  </si>
+  <si>
+    <t>120002</t>
+  </si>
+  <si>
+    <t>120003</t>
+  </si>
+  <si>
+    <t>120004</t>
+  </si>
+  <si>
+    <t>120005</t>
+  </si>
+  <si>
+    <t>120006</t>
+  </si>
+  <si>
+    <t>120007</t>
+  </si>
+  <si>
+    <t>120008</t>
+  </si>
+  <si>
+    <t>120009</t>
+  </si>
+  <si>
+    <t>120012</t>
+  </si>
+  <si>
+    <t>120013</t>
+  </si>
+  <si>
+    <t>120014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,17 +233,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,26 +520,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.4140625" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,15 +561,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -595,122 +625,106 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5">
-        <v>120001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5">
-        <v>120002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="5">
-        <v>120003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="5">
-        <v>120004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="H8" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5">
-        <v>120005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="4" t="s">
+      <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5">
-        <v>120006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="4" t="s">
+      <c r="J9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="5">
-        <v>120007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="H11" s="4" t="s">
+      <c r="J10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="5">
-        <v>120008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="H12" s="4" t="s">
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="5">
-        <v>120009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="H13" s="4" t="s">
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="5">
-        <v>120010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="H14" s="4" t="s">
+      <c r="J13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="5">
-        <v>120011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="H15" s="4" t="s">
+      <c r="J14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="5">
-        <v>120012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="H16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="5">
-        <v>120013</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10">
-      <c r="H17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="5">
-        <v>120014</v>
+      <c r="J15" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
